--- a/biology/Botanique/Hibiscus_liliiflorus/Hibiscus_liliiflorus.xlsx
+++ b/biology/Botanique/Hibiscus_liliiflorus/Hibiscus_liliiflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hibiscus liliiflorus
 Hibiscus liliiflorus, appelé communément mandrinette ou augerine, est une espèce végétale de la famille des Malvacées endémique de l'île Rodrigues, dépendance mauricienne dans l'océan Indien.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'augerine poussait autrefois à La Réunion également. L'espèce y est aujourd'hui présumée éteinte. À Rodrigues même, il ne reste plus qu'un seul spécimen dans la nature. Il se trouve à proximité de Cascade Mourouk. Aussi, de jeunes plants sont cultivés en pépinière sur place, à l'île Maurice (notamment au jardin botanique de Pamplemousses), à la Réunion, puis à Nancy et à Kew grâce aux greffons qui ont été prélevés et installées à La Réunion[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'augerine poussait autrefois à La Réunion également. L'espèce y est aujourd'hui présumée éteinte. À Rodrigues même, il ne reste plus qu'un seul spécimen dans la nature. Il se trouve à proximité de Cascade Mourouk. Aussi, de jeunes plants sont cultivés en pépinière sur place, à l'île Maurice (notamment au jardin botanique de Pamplemousses), à la Réunion, puis à Nancy et à Kew grâce aux greffons qui ont été prélevés et installées à La Réunion.
 Les floraisons qui s'ensuivirent furent particulièrement protégées pour éviter des croisements avec d'autres Hibiscus et la production de graines fertiles a donné de nombreux jeunes plants.
 </t>
         </is>
